--- a/Decretos_zonas_escasez_historico (04-01-21).xlsx
+++ b/Decretos_zonas_escasez_historico (04-01-21).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-DGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C62B422-5444-46DC-9C3F-365D52F93967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429DDC4-81DF-4A6F-9BB3-90EEC0DAE6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="7605" windowHeight="8490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8248,7 +8248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1252E8A3-4AE0-4C77-857A-6BA54DAA7FE3}">
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E131" sqref="E131:E329"/>
     </sheetView>
   </sheetViews>
